--- a/new original/_Lang_Chinese/Lang/CN/Game/Material.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">ダークマター</t>
   </si>
   <si>
-    <t xml:space="preserve">distortive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">存在を歪ませる</t>
+    <t xml:space="preserve">void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無の</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">クロム</t>
   </si>
   <si>
-    <t xml:space="preserve">pure</t>
+    <t xml:space="preserve">unveiling</t>
   </si>
   <si>
     <t xml:space="preserve">真実を暴く</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">ダイヤモンド</t>
   </si>
   <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
+    <t xml:space="preserve">everlasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">変わることなき</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">竜鱗</t>
   </si>
   <si>
-    <t xml:space="preserve">dragonbane</t>
+    <t xml:space="preserve">draconic</t>
   </si>
   <si>
     <t xml:space="preserve">竜を統べし</t>
@@ -866,540 +866,540 @@
     <t xml:space="preserve">タイタニアム</t>
   </si>
   <si>
+    <t xml:space="preserve">stainless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズクオーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lovely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愛らしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生クリーム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">琥珀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マグマ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">血</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真なる黒曜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lawbreaking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">摂理を断つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elder gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エルダーゴールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄昏の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orichalcum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オリハルコン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unbreakable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砕けることなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深淵鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abyssal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深淵を映す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netherite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネザライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infernal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉獄で鍛えられし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無限の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろわざる鉄</t>
+  </si>
+  <si>
     <t xml:space="preserve">unfading</t>
   </si>
   <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェイウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coralwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コーラルウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rose quartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズクオーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lovely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愛らしい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生クリーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">琥珀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マグマ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">血</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真なる黒曜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antinomic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">摂理を断つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elder gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エルダーゴールド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shimmering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">緋色に煌めく </t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orichalcum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オリハルコン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unbreakable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砕けることなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深淵鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abyssal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深淵を映す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netherite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネザライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purgatorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉獄で鍛えられし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infinite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無限の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろわざる鉄</t>
-  </si>
-  <si>
     <t xml:space="preserve">うつろわざる</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.103</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 15.1</t>
   </si>
   <si>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">不朽铁</t>
   </si>
   <si>
-    <t xml:space="preserve">扭曲存在的</t>
+    <t xml:space="preserve">虚无的</t>
   </si>
   <si>
     <t xml:space="preserve">生于森林的,木制的</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">斩断天理的</t>
   </si>
   <si>
-    <t xml:space="preserve">绯红闪耀的</t>
+    <t xml:space="preserve">黄昏的</t>
   </si>
   <si>
     <t xml:space="preserve">坚不可摧的</t>
@@ -2035,7 +2035,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
         <v>475</v>
@@ -2061,7 +2061,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C6" t="s">
         <v>476</v>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2106,7 +2106,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -2132,7 +2132,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C9" t="s">
         <v>477</v>
@@ -2151,7 +2151,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C10" t="s">
         <v>478</v>
@@ -2170,7 +2170,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
         <v>479</v>
@@ -2196,7 +2196,7 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C12" t="s">
         <v>480</v>
@@ -2222,7 +2222,7 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C13" t="s">
         <v>481</v>
@@ -2267,7 +2267,7 @@
         <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -2293,7 +2293,7 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C16" t="s">
         <v>483</v>
@@ -2319,7 +2319,7 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
         <v>484</v>
@@ -2345,7 +2345,7 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C18" t="s">
         <v>485</v>
@@ -2371,7 +2371,7 @@
         <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C19" t="s">
         <v>486</v>
@@ -2397,7 +2397,7 @@
         <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C20" t="s">
         <v>487</v>
@@ -2423,7 +2423,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
         <v>488</v>
@@ -2475,7 +2475,7 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C23" t="s">
         <v>490</v>
@@ -2501,7 +2501,7 @@
         <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C24" t="s">
         <v>108</v>
@@ -2553,7 +2553,7 @@
         <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
@@ -2579,7 +2579,7 @@
         <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C27" t="s">
         <v>123</v>
@@ -2605,7 +2605,7 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C28" t="s">
         <v>492</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C29" t="s">
         <v>493</v>
@@ -2657,7 +2657,7 @@
         <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C30" t="s">
         <v>494</v>
@@ -2683,7 +2683,7 @@
         <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C31" t="s">
         <v>495</v>
@@ -2702,7 +2702,7 @@
         <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C32" t="s">
         <v>496</v>
@@ -2728,7 +2728,7 @@
         <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C33" t="s">
         <v>497</v>
@@ -2747,7 +2747,7 @@
         <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
         <v>498</v>
@@ -2766,7 +2766,7 @@
         <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
@@ -2785,7 +2785,7 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
         <v>500</v>
@@ -2804,7 +2804,7 @@
         <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C37" t="s">
         <v>163</v>
@@ -2823,7 +2823,7 @@
         <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C38" t="s">
         <v>501</v>
@@ -2842,7 +2842,7 @@
         <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C39" t="s">
         <v>502</v>
@@ -2861,7 +2861,7 @@
         <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C40" t="s">
         <v>503</v>
@@ -2880,7 +2880,7 @@
         <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C41" t="s">
         <v>504</v>
@@ -2899,7 +2899,7 @@
         <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C42" t="s">
         <v>178</v>
@@ -2925,7 +2925,7 @@
         <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C43" t="s">
         <v>183</v>
@@ -2970,7 +2970,7 @@
         <v>189</v>
       </c>
       <c r="B45" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C45" t="s">
         <v>506</v>
@@ -2996,7 +2996,7 @@
         <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C46" t="s">
         <v>507</v>
@@ -3041,7 +3041,7 @@
         <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C48" t="s">
         <v>204</v>
@@ -3060,7 +3060,7 @@
         <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C49" t="s">
         <v>509</v>
@@ -3079,7 +3079,7 @@
         <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C50" t="s">
         <v>510</v>
@@ -3098,7 +3098,7 @@
         <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C51" t="s">
         <v>213</v>
@@ -3117,7 +3117,7 @@
         <v>214</v>
       </c>
       <c r="B52" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C52" t="s">
         <v>511</v>
@@ -3155,7 +3155,7 @@
         <v>220</v>
       </c>
       <c r="B54" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C54" t="s">
         <v>512</v>
@@ -3174,7 +3174,7 @@
         <v>223</v>
       </c>
       <c r="B55" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C55" t="s">
         <v>513</v>
@@ -3193,7 +3193,7 @@
         <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C56" t="s">
         <v>514</v>
@@ -3212,7 +3212,7 @@
         <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C57" t="s">
         <v>515</v>
@@ -3257,7 +3257,7 @@
         <v>237</v>
       </c>
       <c r="B59" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C59" t="s">
         <v>517</v>
@@ -3276,7 +3276,7 @@
         <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C60" t="s">
         <v>242</v>
@@ -3295,7 +3295,7 @@
         <v>243</v>
       </c>
       <c r="B61" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C61" t="s">
         <v>518</v>
@@ -3352,7 +3352,7 @@
         <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C64" t="s">
         <v>521</v>
@@ -3371,7 +3371,7 @@
         <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C65" t="s">
         <v>522</v>
@@ -3416,7 +3416,7 @@
         <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C67" t="s">
         <v>524</v>
@@ -3435,7 +3435,7 @@
         <v>266</v>
       </c>
       <c r="B68" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C68" t="s">
         <v>525</v>
@@ -3454,7 +3454,7 @@
         <v>269</v>
       </c>
       <c r="B69" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C69" t="s">
         <v>271</v>
@@ -3473,7 +3473,7 @@
         <v>272</v>
       </c>
       <c r="B70" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C70" t="s">
         <v>274</v>
@@ -3492,7 +3492,7 @@
         <v>275</v>
       </c>
       <c r="B71" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C71" t="s">
         <v>526</v>
@@ -3518,7 +3518,7 @@
         <v>280</v>
       </c>
       <c r="B72" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C72" t="s">
         <v>527</v>
@@ -3570,7 +3570,7 @@
         <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C74" t="s">
         <v>529</v>
@@ -3596,7 +3596,7 @@
         <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C75" t="s">
         <v>530</v>
@@ -3648,7 +3648,7 @@
         <v>305</v>
       </c>
       <c r="B77" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C77" t="s">
         <v>532</v>
@@ -3674,7 +3674,7 @@
         <v>310</v>
       </c>
       <c r="B78" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C78" t="s">
         <v>533</v>
@@ -3700,7 +3700,7 @@
         <v>315</v>
       </c>
       <c r="B79" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C79" t="s">
         <v>534</v>
@@ -3726,7 +3726,7 @@
         <v>320</v>
       </c>
       <c r="B80" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C80" t="s">
         <v>535</v>
@@ -3752,7 +3752,7 @@
         <v>325</v>
       </c>
       <c r="B81" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C81" t="s">
         <v>536</v>
@@ -3778,7 +3778,7 @@
         <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C82" t="s">
         <v>537</v>
@@ -3849,7 +3849,7 @@
         <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C85" t="s">
         <v>345</v>
@@ -3868,7 +3868,7 @@
         <v>346</v>
       </c>
       <c r="B86" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C86" t="s">
         <v>540</v>
@@ -3925,7 +3925,7 @@
         <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C89" t="s">
         <v>543</v>
@@ -3944,7 +3944,7 @@
         <v>358</v>
       </c>
       <c r="B90" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C90" t="s">
         <v>544</v>
@@ -3963,7 +3963,7 @@
         <v>361</v>
       </c>
       <c r="B91" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C91" t="s">
         <v>363</v>
@@ -4371,7 +4371,7 @@
         <v>429</v>
       </c>
       <c r="B111" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C111" t="s">
         <v>560</v>
@@ -4386,15 +4386,15 @@
         <v>614</v>
       </c>
       <c r="G111" t="s">
+        <v>318</v>
+      </c>
+      <c r="H111" t="s">
         <v>432</v>
-      </c>
-      <c r="H111" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B112" t="s">
         <v>472</v>
@@ -4403,24 +4403,24 @@
         <v>561</v>
       </c>
       <c r="D112" t="s">
+        <v>434</v>
+      </c>
+      <c r="E112" t="s">
         <v>435</v>
-      </c>
-      <c r="E112" t="s">
-        <v>436</v>
       </c>
       <c r="F112" t="s">
         <v>615</v>
       </c>
       <c r="G112" t="s">
+        <v>436</v>
+      </c>
+      <c r="H112" t="s">
         <v>437</v>
-      </c>
-      <c r="H112" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B113" t="s">
         <v>472</v>
@@ -4429,24 +4429,24 @@
         <v>562</v>
       </c>
       <c r="D113" t="s">
+        <v>439</v>
+      </c>
+      <c r="E113" t="s">
         <v>440</v>
-      </c>
-      <c r="E113" t="s">
-        <v>441</v>
       </c>
       <c r="F113" t="s">
         <v>616</v>
       </c>
       <c r="G113" t="s">
+        <v>441</v>
+      </c>
+      <c r="H113" t="s">
         <v>442</v>
-      </c>
-      <c r="H113" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B114" t="s">
         <v>472</v>
@@ -4455,24 +4455,24 @@
         <v>563</v>
       </c>
       <c r="D114" t="s">
+        <v>444</v>
+      </c>
+      <c r="E114" t="s">
         <v>445</v>
-      </c>
-      <c r="E114" t="s">
-        <v>446</v>
       </c>
       <c r="F114" t="s">
         <v>617</v>
       </c>
       <c r="G114" t="s">
+        <v>446</v>
+      </c>
+      <c r="H114" t="s">
         <v>447</v>
-      </c>
-      <c r="H114" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B115" t="s">
         <v>472</v>
@@ -4481,24 +4481,24 @@
         <v>564</v>
       </c>
       <c r="D115" t="s">
+        <v>449</v>
+      </c>
+      <c r="E115" t="s">
         <v>450</v>
-      </c>
-      <c r="E115" t="s">
-        <v>451</v>
       </c>
       <c r="F115" t="s">
         <v>618</v>
       </c>
       <c r="G115" t="s">
+        <v>451</v>
+      </c>
+      <c r="H115" t="s">
         <v>452</v>
-      </c>
-      <c r="H115" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B116" t="s">
         <v>472</v>
@@ -4507,16 +4507,16 @@
         <v>565</v>
       </c>
       <c r="D116" t="s">
+        <v>454</v>
+      </c>
+      <c r="E116" t="s">
         <v>455</v>
-      </c>
-      <c r="E116" t="s">
-        <v>456</v>
       </c>
       <c r="F116" t="s">
         <v>592</v>
       </c>
       <c r="G116" t="s">
-        <v>283</v>
+        <v>456</v>
       </c>
       <c r="H116" t="s">
         <v>457</v>

--- a/new original/_Lang_Chinese/Lang/CN/Game/Material.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
